--- a/Planilha Geral - IMM2025.xlsx
+++ b/Planilha Geral - IMM2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Med10K\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\abacaxi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A548A7F-1581-4706-853A-A43DD31E9EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94094455-7C6D-497B-9516-FD9A84EDBB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="804">
   <si>
     <t>Qual o seu nome?</t>
   </si>
@@ -2449,6 +2449,9 @@
   <si>
     <t>Data</t>
   </si>
+  <si>
+    <t xml:space="preserve">Probabilidade de Matricula - Média 5 Simulações </t>
+  </si>
 </sst>
 </file>
 
@@ -2457,7 +2460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2526,8 +2529,21 @@
       <color rgb="FF1155CC"/>
       <name val="inherit"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2552,8 +2568,14 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2561,11 +2583,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2594,9 +2632,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2812,10 +2857,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W998"/>
+  <dimension ref="A1:X998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2830,9 +2875,10 @@
     <col min="21" max="21" width="39.90625" customWidth="1"/>
     <col min="22" max="22" width="30.90625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="48.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13">
+    <row r="1" spans="1:24" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>802</v>
       </c>
@@ -2902,8 +2948,11 @@
       <c r="W1" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X1" s="18" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2975,8 +3024,11 @@
         <f>IFERROR(VLOOKUP(C2,'Compraram '!D:D,1,0),"Não")</f>
         <v>donajacke@gmail.com</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X2" s="19">
+        <v>0.69797467961728277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -3048,8 +3100,11 @@
         <f>IFERROR(VLOOKUP(C3,'Compraram '!D:D,1,0),"Não")</f>
         <v>jprcoaching33@gmail.com</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X3" s="19">
+        <v>0.62890096493281045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
@@ -3121,8 +3176,11 @@
         <f>IFERROR(VLOOKUP(C4,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X4" s="19">
+        <v>0.39038814082584911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -3194,8 +3252,11 @@
         <f>IFERROR(VLOOKUP(C5,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X5" s="19">
+        <v>0.58048645166578694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>84</v>
       </c>
@@ -3267,8 +3328,11 @@
         <f>IFERROR(VLOOKUP(C6,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X6" s="19">
+        <v>0.68072485317796783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>98</v>
       </c>
@@ -3340,8 +3404,11 @@
         <f>IFERROR(VLOOKUP(C7,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X7" s="19">
+        <v>0.40292275265827476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>109</v>
       </c>
@@ -3413,8 +3480,11 @@
         <f>IFERROR(VLOOKUP(C8,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X8" s="19">
+        <v>0.68309742253153849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>120</v>
       </c>
@@ -3486,8 +3556,11 @@
         <f>IFERROR(VLOOKUP(C9,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X9" s="19">
+        <v>0.79172534873228717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>131</v>
       </c>
@@ -3559,8 +3632,11 @@
         <f>IFERROR(VLOOKUP(C10,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X10" s="19">
+        <v>0.90008733810598451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>141</v>
       </c>
@@ -3632,8 +3708,11 @@
         <f>IFERROR(VLOOKUP(C11,'Compraram '!D:D,1,0),"Não")</f>
         <v>impulsedigital.gestaodeanuncios@gmail.com</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X11" s="19">
+        <v>0.2047004302224241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>153</v>
       </c>
@@ -3705,8 +3784,11 @@
         <f>IFERROR(VLOOKUP(C12,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X12" s="19">
+        <v>0.56303897743113551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>162</v>
       </c>
@@ -3778,8 +3860,11 @@
         <f>IFERROR(VLOOKUP(C13,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X13" s="19">
+        <v>0.82770516914736236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>172</v>
       </c>
@@ -3851,8 +3936,11 @@
         <f>IFERROR(VLOOKUP(C14,'Compraram '!D:D,1,0),"Não")</f>
         <v>maxsuelmonaski@gmail.com</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X14" s="19">
+        <v>0.61460398884500633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>183</v>
       </c>
@@ -3924,8 +4012,11 @@
         <f>IFERROR(VLOOKUP(C15,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X15" s="19">
+        <v>0.58023073976107109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>194</v>
       </c>
@@ -3997,8 +4088,11 @@
         <f>IFERROR(VLOOKUP(C16,'Compraram '!D:D,1,0),"Não")</f>
         <v>tiemyk@hotmail.com</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X16" s="19">
+        <v>0.30030579754845943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>204</v>
       </c>
@@ -4070,8 +4164,11 @@
         <f>IFERROR(VLOOKUP(C17,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X17" s="19">
+        <v>0.6928584217041418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>214</v>
       </c>
@@ -4143,8 +4240,11 @@
         <f>IFERROR(VLOOKUP(C18,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X18" s="19">
+        <v>0.37962494575109046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>224</v>
       </c>
@@ -4216,8 +4316,11 @@
         <f>IFERROR(VLOOKUP(C19,'Compraram '!D:D,1,0),"Não")</f>
         <v>evelinlorenadesigner@gmail.com</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X19" s="19">
+        <v>0.76777684593270712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>235</v>
       </c>
@@ -4289,8 +4392,11 @@
         <f>IFERROR(VLOOKUP(C20,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X20" s="19">
+        <v>0.77248766229314414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>245</v>
       </c>
@@ -4362,8 +4468,11 @@
         <f>IFERROR(VLOOKUP(C21,'Compraram '!D:D,1,0),"Não")</f>
         <v>bruuvmenezes@gmail.com</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X21" s="19">
+        <v>0.24522235605397286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>255</v>
       </c>
@@ -4435,8 +4544,11 @@
         <f>IFERROR(VLOOKUP(C22,'Compraram '!D:D,1,0),"Não")</f>
         <v>cassiamaele@hotmail.com</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X22" s="19">
+        <v>0.58815236327174969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>265</v>
       </c>
@@ -4505,8 +4617,11 @@
         <f>IFERROR(VLOOKUP(C23,'Compraram '!D:D,1,0),"Não")</f>
         <v>bytatianaalmeida@outlook.com</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X23" s="19">
+        <v>0.34060045210331019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>275</v>
       </c>
@@ -4578,8 +4693,11 @@
         <f>IFERROR(VLOOKUP(C24,'Compraram '!D:D,1,0),"Não")</f>
         <v>aline.zaccaro23@gmail.com</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X24" s="19">
+        <v>0.29739771259211734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>285</v>
       </c>
@@ -4651,8 +4769,11 @@
         <f>IFERROR(VLOOKUP(C25,'Compraram '!D:D,1,0),"Não")</f>
         <v>danbelchior80@gmail.com</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X25" s="19">
+        <v>0.57782784515882857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>296</v>
       </c>
@@ -4724,8 +4845,11 @@
         <f>IFERROR(VLOOKUP(C26,'Compraram '!D:D,1,0),"Não")</f>
         <v>milasousa229@gmail.com</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X26" s="19">
+        <v>0.33408320866229352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>306</v>
       </c>
@@ -4797,8 +4921,11 @@
         <f>IFERROR(VLOOKUP(C27,'Compraram '!D:D,1,0),"Não")</f>
         <v>flavialopesunai@gmail.com</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X27" s="19">
+        <v>0.25861387709432665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>317</v>
       </c>
@@ -4870,8 +4997,11 @@
         <f>IFERROR(VLOOKUP(C28,'Compraram '!D:D,1,0),"Não")</f>
         <v>eu.lucianeferraz@gmail.com</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X28" s="19">
+        <v>0.31876009329158828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>328</v>
       </c>
@@ -4943,8 +5073,11 @@
         <f>IFERROR(VLOOKUP(C29,'Compraram '!D:D,1,0),"Não")</f>
         <v>brunovaztex@gmail.com</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X29" s="19">
+        <v>0.30455152461051266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>339</v>
       </c>
@@ -5016,8 +5149,11 @@
         <f>IFERROR(VLOOKUP(C30,'Compraram '!D:D,1,0),"Não")</f>
         <v>laryssagnbarbosa@gmail.com</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X30" s="19">
+        <v>0.38519295514871088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>349</v>
       </c>
@@ -5089,8 +5225,11 @@
         <f>IFERROR(VLOOKUP(C31,'Compraram '!D:D,1,0),"Não")</f>
         <v>denise@danondigital.com</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X31" s="19">
+        <v>0.52446604468751645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>359</v>
       </c>
@@ -5162,8 +5301,11 @@
         <f>IFERROR(VLOOKUP(C32,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X32" s="19">
+        <v>0.5152794548773113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>369</v>
       </c>
@@ -5235,8 +5377,11 @@
         <f>IFERROR(VLOOKUP(C33,'Compraram '!D:D,1,0),"Não")</f>
         <v>anahitroche@gmail.com</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X33" s="19">
+        <v>0.38122440365751492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>379</v>
       </c>
@@ -5308,8 +5453,11 @@
         <f>IFERROR(VLOOKUP(C34,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X34" s="19">
+        <v>0.42294804294281424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>389</v>
       </c>
@@ -5381,8 +5529,11 @@
         <f>IFERROR(VLOOKUP(C35,'Compraram '!D:D,1,0),"Não")</f>
         <v>nataliabrandt@hotmail.com</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X35" s="19">
+        <v>0.43121902268698087</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>398</v>
       </c>
@@ -5454,8 +5605,11 @@
         <f>IFERROR(VLOOKUP(C36,'Compraram '!D:D,1,0),"Não")</f>
         <v>moannemendes@hotmail.com</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X36" s="19">
+        <v>0.23891942480629674</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>409</v>
       </c>
@@ -5527,8 +5681,11 @@
         <f>IFERROR(VLOOKUP(C37,'Compraram '!D:D,1,0),"Não")</f>
         <v>t-hata-rainha@hotmail.com</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="12.5">
+      <c r="X37" s="19">
+        <v>0.13837696594022614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="12.5">
       <c r="A38" s="2" t="s">
         <v>419</v>
       </c>
@@ -5600,8 +5757,11 @@
         <f>IFERROR(VLOOKUP(C38,'Compraram '!D:D,1,0),"Não")</f>
         <v>aline.zaccaro23@gmail.com</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="12.5">
+      <c r="X38" s="19">
+        <v>0.72857685392439564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="12.5">
       <c r="A39" s="2" t="s">
         <v>425</v>
       </c>
@@ -5673,8 +5833,11 @@
         <f>IFERROR(VLOOKUP(C39,'Compraram '!D:D,1,0),"Não")</f>
         <v>anahitroche@gmail.com</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="12.5">
+      <c r="X39" s="19">
+        <v>0.59367814825439891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="12.5">
       <c r="A40" s="2" t="s">
         <v>432</v>
       </c>
@@ -5746,8 +5909,11 @@
         <f>IFERROR(VLOOKUP(C40,'Compraram '!D:D,1,0),"Não")</f>
         <v>jaque-d-@hotmail.com</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="12.5">
+      <c r="X40" s="19">
+        <v>0.64342568761557306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="12.5">
       <c r="A41" s="2" t="s">
         <v>440</v>
       </c>
@@ -5819,8 +5985,11 @@
         <f>IFERROR(VLOOKUP(C41,'Compraram '!D:D,1,0),"Não")</f>
         <v>tiemyk@hotmail.com</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="12.5">
+      <c r="X41" s="19">
+        <v>0.38717220645295336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="12.5">
       <c r="A42" s="2" t="s">
         <v>448</v>
       </c>
@@ -5892,8 +6061,11 @@
         <f>IFERROR(VLOOKUP(C42,'Compraram '!D:D,1,0),"Não")</f>
         <v>demymarcos2015@gmail.com</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="12.5">
+      <c r="X42" s="19">
+        <v>0.23875527082685299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="12.5">
       <c r="A43" s="2" t="s">
         <v>458</v>
       </c>
@@ -5965,8 +6137,11 @@
         <f>IFERROR(VLOOKUP(C43,'Compraram '!D:D,1,0),"Não")</f>
         <v>simone@simonews.com.br</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="12.5">
+      <c r="X43" s="19">
+        <v>0.23421260427652718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="12.5">
       <c r="A44" s="2" t="s">
         <v>468</v>
       </c>
@@ -6038,8 +6213,11 @@
         <f>IFERROR(VLOOKUP(C44,'Compraram '!D:D,1,0),"Não")</f>
         <v>thatiannycolaresm@hotmail.com</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" ht="12.5">
+      <c r="X44" s="19">
+        <v>0.55759480999842503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="12.5">
       <c r="A45" s="2" t="s">
         <v>478</v>
       </c>
@@ -6111,8 +6289,11 @@
         <f>IFERROR(VLOOKUP(C45,'Compraram '!D:D,1,0),"Não")</f>
         <v>anapaulaantunesdesouza1@hotmail.com</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="12.5">
+      <c r="X45" s="19">
+        <v>0.63766188974349869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="12.5">
       <c r="A46" s="2" t="s">
         <v>487</v>
       </c>
@@ -6184,8 +6365,11 @@
         <f>IFERROR(VLOOKUP(C46,'Compraram '!D:D,1,0),"Não")</f>
         <v>milasousa229@gmail.com</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="12.5">
+      <c r="X46" s="19">
+        <v>0.33408320866229352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="12.5">
       <c r="A47" s="2" t="s">
         <v>495</v>
       </c>
@@ -6257,8 +6441,11 @@
         <f>IFERROR(VLOOKUP(C47,'Compraram '!D:D,1,0),"Não")</f>
         <v>allanpiva13@gmail.com</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="12.5">
+      <c r="X47" s="19">
+        <v>0.81560841399858752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="12.5">
       <c r="A48" s="2" t="s">
         <v>505</v>
       </c>
@@ -6330,8 +6517,11 @@
         <f>IFERROR(VLOOKUP(C48,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" ht="12.5">
+      <c r="X48" s="19">
+        <v>0.42294804294281424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="12.5">
       <c r="A49" s="2" t="s">
         <v>512</v>
       </c>
@@ -6403,22 +6593,25 @@
         <f>IFERROR(VLOOKUP(C49,'Compraram '!D:D,1,0),"Não")</f>
         <v>arthur@steinrocket.com.br</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" ht="12.5"/>
-    <row r="51" spans="1:23" ht="12.5"/>
-    <row r="52" spans="1:23" ht="12.5"/>
-    <row r="53" spans="1:23" ht="12.5"/>
-    <row r="54" spans="1:23" ht="12.5"/>
-    <row r="55" spans="1:23" ht="12.5"/>
-    <row r="56" spans="1:23" ht="12.5"/>
-    <row r="57" spans="1:23" ht="12.5"/>
-    <row r="58" spans="1:23" ht="12.5"/>
-    <row r="59" spans="1:23" ht="12.5"/>
-    <row r="60" spans="1:23" ht="12.5"/>
-    <row r="61" spans="1:23" ht="12.5"/>
-    <row r="62" spans="1:23" ht="12.5"/>
-    <row r="63" spans="1:23" ht="12.5"/>
-    <row r="64" spans="1:23" ht="12.5"/>
+      <c r="X49" s="19">
+        <v>0.21531463499632775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="12.5"/>
+    <row r="51" spans="1:24" ht="12.5"/>
+    <row r="52" spans="1:24" ht="12.5"/>
+    <row r="53" spans="1:24" ht="12.5"/>
+    <row r="54" spans="1:24" ht="12.5"/>
+    <row r="55" spans="1:24" ht="12.5"/>
+    <row r="56" spans="1:24" ht="12.5"/>
+    <row r="57" spans="1:24" ht="12.5"/>
+    <row r="58" spans="1:24" ht="12.5"/>
+    <row r="59" spans="1:24" ht="12.5"/>
+    <row r="60" spans="1:24" ht="12.5"/>
+    <row r="61" spans="1:24" ht="12.5"/>
+    <row r="62" spans="1:24" ht="12.5"/>
+    <row r="63" spans="1:24" ht="12.5"/>
+    <row r="64" spans="1:24" ht="12.5"/>
     <row r="65" ht="12.5"/>
     <row r="66" ht="12.5"/>
     <row r="67" ht="12.5"/>

--- a/Planilha Geral - IMM2025.xlsx
+++ b/Planilha Geral - IMM2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\abacaxi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94094455-7C6D-497B-9516-FD9A84EDBB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC137A-1564-4051-A283-BC738107AD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Planilha Geral - IMM2025.xlsx
+++ b/Planilha Geral - IMM2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\abacaxi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC137A-1564-4051-A283-BC738107AD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF87B85-34F1-4F22-B0BD-66E4C5C0314E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="CRM " sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Preencheu Pesquisa'!$A$1:$V$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Preencheu Pesquisa'!$A$1:$W$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -2860,22 +2860,22 @@
   <dimension ref="A1:X998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" customWidth="1"/>
-    <col min="11" max="11" width="41.36328125" customWidth="1"/>
-    <col min="12" max="12" width="24.90625" customWidth="1"/>
-    <col min="19" max="19" width="16.36328125" customWidth="1"/>
-    <col min="20" max="20" width="26.26953125" customWidth="1"/>
-    <col min="21" max="21" width="39.90625" customWidth="1"/>
-    <col min="22" max="22" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="48.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1"/>
+    <col min="12" max="12" width="41.36328125" customWidth="1"/>
+    <col min="13" max="13" width="24.90625" customWidth="1"/>
+    <col min="20" max="20" width="16.36328125" customWidth="1"/>
+    <col min="21" max="21" width="26.26953125" customWidth="1"/>
+    <col min="22" max="22" width="39.90625" customWidth="1"/>
+    <col min="23" max="23" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.5">
@@ -2885,71 +2885,71 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
@@ -2959,38 +2959,38 @@
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="19">
+        <v>0.69797467961728277</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>33</v>
@@ -3005,27 +3005,27 @@
         <v>33</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="3" t="str">
-        <f>IF(W2="Não","Não","Sim")</f>
+      <c r="W2" s="3" t="str">
+        <f>IF(X2="Não","Não","Sim")</f>
         <v>Sim</v>
       </c>
-      <c r="W2" t="str">
-        <f>IFERROR(VLOOKUP(C2,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X2" t="str">
+        <f>IFERROR(VLOOKUP(D2,'Compraram '!D:D,1,0),"Não")</f>
         <v>donajacke@gmail.com</v>
-      </c>
-      <c r="X2" s="19">
-        <v>0.69797467961728277</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
@@ -3035,73 +3035,73 @@
       <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="19">
+        <v>0.62890096493281045</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="3" t="str">
-        <f t="shared" ref="V3:V49" si="0">IF(W3="Não","Não","Sim")</f>
+      <c r="W3" s="3" t="str">
+        <f t="shared" ref="W3:W49" si="0">IF(X3="Não","Não","Sim")</f>
         <v>Sim</v>
       </c>
-      <c r="W3" t="str">
-        <f>IFERROR(VLOOKUP(C3,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X3" t="str">
+        <f>IFERROR(VLOOKUP(D3,'Compraram '!D:D,1,0),"Não")</f>
         <v>jprcoaching33@gmail.com</v>
-      </c>
-      <c r="X3" s="19">
-        <v>0.62890096493281045</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
@@ -3111,73 +3111,73 @@
       <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="19">
+        <v>0.39038814082584911</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V4" s="3" t="str">
+      <c r="W4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W4" t="str">
-        <f>IFERROR(VLOOKUP(C4,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X4" t="str">
+        <f>IFERROR(VLOOKUP(D4,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X4" s="19">
-        <v>0.39038814082584911</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
@@ -3187,73 +3187,73 @@
       <c r="B5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19">
+        <v>0.58048645166578694</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="V5" s="3" t="str">
+      <c r="W5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W5" t="str">
-        <f>IFERROR(VLOOKUP(C5,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X5" t="str">
+        <f>IFERROR(VLOOKUP(D5,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X5" s="19">
-        <v>0.58048645166578694</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
@@ -3263,73 +3263,73 @@
       <c r="B6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="19">
+        <v>0.68072485317796783</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="V6" s="3" t="str">
+      <c r="W6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W6" t="str">
-        <f>IFERROR(VLOOKUP(C6,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X6" t="str">
+        <f>IFERROR(VLOOKUP(D6,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X6" s="19">
-        <v>0.68072485317796783</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1">
@@ -3339,73 +3339,73 @@
       <c r="B7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="19">
+        <v>0.40292275265827476</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="V7" s="3" t="str">
+      <c r="W7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W7" t="str">
-        <f>IFERROR(VLOOKUP(C7,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X7" t="str">
+        <f>IFERROR(VLOOKUP(D7,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X7" s="19">
-        <v>0.40292275265827476</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1">
@@ -3415,73 +3415,73 @@
       <c r="B8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="19">
+        <v>0.68309742253153849</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="V8" s="3" t="str">
+      <c r="W8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W8" t="str">
-        <f>IFERROR(VLOOKUP(C8,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X8" t="str">
+        <f>IFERROR(VLOOKUP(D8,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X8" s="19">
-        <v>0.68309742253153849</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
@@ -3491,73 +3491,73 @@
       <c r="B9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="19">
+        <v>0.79172534873228717</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="U9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="V9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="V9" s="3" t="str">
+      <c r="W9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W9" t="str">
-        <f>IFERROR(VLOOKUP(C9,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X9" t="str">
+        <f>IFERROR(VLOOKUP(D9,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X9" s="19">
-        <v>0.79172534873228717</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1">
@@ -3567,73 +3567,73 @@
       <c r="B10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="19">
+        <v>0.90008733810598451</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="V10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="W10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W10" t="str">
-        <f>IFERROR(VLOOKUP(C10,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X10" t="str">
+        <f>IFERROR(VLOOKUP(D10,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X10" s="19">
-        <v>0.90008733810598451</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1">
@@ -3643,73 +3643,73 @@
       <c r="B11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="19">
+        <v>0.2047004302224241</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V11" s="3" t="str">
+      <c r="W11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W11" t="str">
-        <f>IFERROR(VLOOKUP(C11,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X11" t="str">
+        <f>IFERROR(VLOOKUP(D11,'Compraram '!D:D,1,0),"Não")</f>
         <v>impulsedigital.gestaodeanuncios@gmail.com</v>
-      </c>
-      <c r="X11" s="19">
-        <v>0.2047004302224241</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1">
@@ -3719,73 +3719,73 @@
       <c r="B12" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="19">
+        <v>0.56303897743113551</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="V12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="V12" s="3" t="str">
+      <c r="W12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W12" t="str">
-        <f>IFERROR(VLOOKUP(C12,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X12" t="str">
+        <f>IFERROR(VLOOKUP(D12,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X12" s="19">
-        <v>0.56303897743113551</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1">
@@ -3795,73 +3795,73 @@
       <c r="B13" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="19">
+        <v>0.82770516914736236</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="Q13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="R13" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="V13" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="V13" s="3" t="str">
+      <c r="W13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W13" t="str">
-        <f>IFERROR(VLOOKUP(C13,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X13" t="str">
+        <f>IFERROR(VLOOKUP(D13,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X13" s="19">
-        <v>0.82770516914736236</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
@@ -3871,73 +3871,73 @@
       <c r="B14" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="19">
+        <v>0.61460398884500633</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="V14" s="3" t="str">
+      <c r="W14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W14" t="str">
-        <f>IFERROR(VLOOKUP(C14,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X14" t="str">
+        <f>IFERROR(VLOOKUP(D14,'Compraram '!D:D,1,0),"Não")</f>
         <v>maxsuelmonaski@gmail.com</v>
-      </c>
-      <c r="X14" s="19">
-        <v>0.61460398884500633</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
@@ -3947,73 +3947,73 @@
       <c r="B15" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="19">
+        <v>0.58023073976107109</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="P15" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="Q15" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="R15" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="S15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="U15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="V15" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="V15" s="3" t="str">
+      <c r="W15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W15" t="str">
-        <f>IFERROR(VLOOKUP(C15,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X15" t="str">
+        <f>IFERROR(VLOOKUP(D15,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X15" s="19">
-        <v>0.58023073976107109</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
@@ -4023,73 +4023,73 @@
       <c r="B16" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="19">
+        <v>0.30030579754845943</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="V16" s="3" t="str">
+      <c r="W16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W16" t="str">
-        <f>IFERROR(VLOOKUP(C16,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X16" t="str">
+        <f>IFERROR(VLOOKUP(D16,'Compraram '!D:D,1,0),"Não")</f>
         <v>tiemyk@hotmail.com</v>
-      </c>
-      <c r="X16" s="19">
-        <v>0.30030579754845943</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
@@ -4099,73 +4099,73 @@
       <c r="B17" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="19">
+        <v>0.6928584217041418</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="Q17" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="R17" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="S17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="V17" s="3" t="str">
+      <c r="W17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W17" t="str">
-        <f>IFERROR(VLOOKUP(C17,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X17" t="str">
+        <f>IFERROR(VLOOKUP(D17,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X17" s="19">
-        <v>0.6928584217041418</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
@@ -4175,73 +4175,73 @@
       <c r="B18" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="19">
+        <v>0.37962494575109046</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="V18" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="V18" s="3" t="str">
+      <c r="W18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W18" t="str">
-        <f>IFERROR(VLOOKUP(C18,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X18" t="str">
+        <f>IFERROR(VLOOKUP(D18,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X18" s="19">
-        <v>0.37962494575109046</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
@@ -4251,73 +4251,73 @@
       <c r="B19" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="19">
+        <v>0.76777684593270712</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="V19" s="3" t="str">
+      <c r="W19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W19" t="str">
-        <f>IFERROR(VLOOKUP(C19,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X19" t="str">
+        <f>IFERROR(VLOOKUP(D19,'Compraram '!D:D,1,0),"Não")</f>
         <v>evelinlorenadesigner@gmail.com</v>
-      </c>
-      <c r="X19" s="19">
-        <v>0.76777684593270712</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
@@ -4327,73 +4327,73 @@
       <c r="B20" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="19">
+        <v>0.77248766229314414</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="V20" s="3" t="str">
+      <c r="W20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W20" t="str">
-        <f>IFERROR(VLOOKUP(C20,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X20" t="str">
+        <f>IFERROR(VLOOKUP(D20,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X20" s="19">
-        <v>0.77248766229314414</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
@@ -4403,73 +4403,73 @@
       <c r="B21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="19">
+        <v>0.24522235605397286</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="V21" s="3" t="str">
+      <c r="W21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W21" t="str">
-        <f>IFERROR(VLOOKUP(C21,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X21" t="str">
+        <f>IFERROR(VLOOKUP(D21,'Compraram '!D:D,1,0),"Não")</f>
         <v>bruuvmenezes@gmail.com</v>
-      </c>
-      <c r="X21" s="19">
-        <v>0.24522235605397286</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1">
@@ -4479,73 +4479,73 @@
       <c r="B22" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="19">
+        <v>0.58815236327174969</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="V22" s="3" t="str">
+      <c r="W22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W22" t="str">
-        <f>IFERROR(VLOOKUP(C22,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X22" t="str">
+        <f>IFERROR(VLOOKUP(D22,'Compraram '!D:D,1,0),"Não")</f>
         <v>cassiamaele@hotmail.com</v>
-      </c>
-      <c r="X22" s="19">
-        <v>0.58815236327174969</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
@@ -4555,70 +4555,70 @@
       <c r="B23" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="19">
+        <v>0.34060045210331019</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="V23" s="3" t="str">
+      <c r="W23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W23" t="str">
-        <f>IFERROR(VLOOKUP(C23,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X23" t="str">
+        <f>IFERROR(VLOOKUP(D23,'Compraram '!D:D,1,0),"Não")</f>
         <v>bytatianaalmeida@outlook.com</v>
-      </c>
-      <c r="X23" s="19">
-        <v>0.34060045210331019</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" customHeight="1">
@@ -4628,73 +4628,73 @@
       <c r="B24" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="19">
+        <v>0.29739771259211734</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="V24" s="3" t="str">
+      <c r="W24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W24" t="str">
-        <f>IFERROR(VLOOKUP(C24,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X24" t="str">
+        <f>IFERROR(VLOOKUP(D24,'Compraram '!D:D,1,0),"Não")</f>
         <v>aline.zaccaro23@gmail.com</v>
-      </c>
-      <c r="X24" s="19">
-        <v>0.29739771259211734</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1">
@@ -4704,73 +4704,73 @@
       <c r="B25" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="19">
+        <v>0.57782784515882857</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="V25" s="3" t="str">
+      <c r="W25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W25" t="str">
-        <f>IFERROR(VLOOKUP(C25,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X25" t="str">
+        <f>IFERROR(VLOOKUP(D25,'Compraram '!D:D,1,0),"Não")</f>
         <v>danbelchior80@gmail.com</v>
-      </c>
-      <c r="X25" s="19">
-        <v>0.57782784515882857</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1">
@@ -4780,73 +4780,73 @@
       <c r="B26" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="19">
+        <v>0.33408320866229352</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="V26" s="3" t="str">
+      <c r="W26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W26" t="str">
-        <f>IFERROR(VLOOKUP(C26,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X26" t="str">
+        <f>IFERROR(VLOOKUP(D26,'Compraram '!D:D,1,0),"Não")</f>
         <v>milasousa229@gmail.com</v>
-      </c>
-      <c r="X26" s="19">
-        <v>0.33408320866229352</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
@@ -4856,73 +4856,73 @@
       <c r="B27" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="19">
+        <v>0.25861387709432665</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="V27" s="3" t="str">
+      <c r="W27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W27" t="str">
-        <f>IFERROR(VLOOKUP(C27,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X27" t="str">
+        <f>IFERROR(VLOOKUP(D27,'Compraram '!D:D,1,0),"Não")</f>
         <v>flavialopesunai@gmail.com</v>
-      </c>
-      <c r="X27" s="19">
-        <v>0.25861387709432665</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1">
@@ -4932,73 +4932,73 @@
       <c r="B28" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="19">
+        <v>0.31876009329158828</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="V28" s="3" t="str">
+      <c r="W28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W28" t="str">
-        <f>IFERROR(VLOOKUP(C28,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X28" t="str">
+        <f>IFERROR(VLOOKUP(D28,'Compraram '!D:D,1,0),"Não")</f>
         <v>eu.lucianeferraz@gmail.com</v>
-      </c>
-      <c r="X28" s="19">
-        <v>0.31876009329158828</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1">
@@ -5008,73 +5008,73 @@
       <c r="B29" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="19">
+        <v>0.30455152461051266</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="V29" s="3" t="str">
+      <c r="W29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W29" t="str">
-        <f>IFERROR(VLOOKUP(C29,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X29" t="str">
+        <f>IFERROR(VLOOKUP(D29,'Compraram '!D:D,1,0),"Não")</f>
         <v>brunovaztex@gmail.com</v>
-      </c>
-      <c r="X29" s="19">
-        <v>0.30455152461051266</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1">
@@ -5084,73 +5084,73 @@
       <c r="B30" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="19">
+        <v>0.38519295514871088</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="V30" s="3" t="str">
+      <c r="W30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W30" t="str">
-        <f>IFERROR(VLOOKUP(C30,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X30" t="str">
+        <f>IFERROR(VLOOKUP(D30,'Compraram '!D:D,1,0),"Não")</f>
         <v>laryssagnbarbosa@gmail.com</v>
-      </c>
-      <c r="X30" s="19">
-        <v>0.38519295514871088</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1">
@@ -5160,73 +5160,73 @@
       <c r="B31" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="19">
+        <v>0.52446604468751645</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="V31" s="3" t="str">
+      <c r="W31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W31" t="str">
-        <f>IFERROR(VLOOKUP(C31,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X31" t="str">
+        <f>IFERROR(VLOOKUP(D31,'Compraram '!D:D,1,0),"Não")</f>
         <v>denise@danondigital.com</v>
-      </c>
-      <c r="X31" s="19">
-        <v>0.52446604468751645</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1">
@@ -5236,73 +5236,73 @@
       <c r="B32" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="19">
+        <v>0.5152794548773113</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="L32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="M32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="N32" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="O32" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="P32" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="Q32" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="R32" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="S32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="T32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="U32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U32" s="5" t="s">
+      <c r="V32" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="V32" s="3" t="str">
+      <c r="W32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W32" t="str">
-        <f>IFERROR(VLOOKUP(C32,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X32" t="str">
+        <f>IFERROR(VLOOKUP(D32,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X32" s="19">
-        <v>0.5152794548773113</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1">
@@ -5312,73 +5312,73 @@
       <c r="B33" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="19">
+        <v>0.38122440365751492</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="V33" s="3" t="str">
+      <c r="W33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W33" t="str">
-        <f>IFERROR(VLOOKUP(C33,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X33" t="str">
+        <f>IFERROR(VLOOKUP(D33,'Compraram '!D:D,1,0),"Não")</f>
         <v>anahitroche@gmail.com</v>
-      </c>
-      <c r="X33" s="19">
-        <v>0.38122440365751492</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1">
@@ -5388,73 +5388,73 @@
       <c r="B34" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="19">
+        <v>0.42294804294281424</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="K34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="L34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="N34" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="N34" s="8" t="s">
+      <c r="O34" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="P34" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="Q34" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="R34" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="R34" s="8" t="s">
+      <c r="S34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="T34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="U34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="U34" s="8" t="s">
+      <c r="V34" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="V34" s="3" t="str">
+      <c r="W34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W34" t="str">
-        <f>IFERROR(VLOOKUP(C34,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X34" t="str">
+        <f>IFERROR(VLOOKUP(D34,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X34" s="19">
-        <v>0.42294804294281424</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1">
@@ -5464,73 +5464,73 @@
       <c r="B35" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="19">
+        <v>0.43121902268698087</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="V35" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="V35" s="3" t="str">
+      <c r="W35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W35" t="str">
-        <f>IFERROR(VLOOKUP(C35,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X35" t="str">
+        <f>IFERROR(VLOOKUP(D35,'Compraram '!D:D,1,0),"Não")</f>
         <v>nataliabrandt@hotmail.com</v>
-      </c>
-      <c r="X35" s="19">
-        <v>0.43121902268698087</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1">
@@ -5540,73 +5540,73 @@
       <c r="B36" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="19">
+        <v>0.23891942480629674</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="V36" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="V36" s="3" t="str">
+      <c r="W36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W36" t="str">
-        <f>IFERROR(VLOOKUP(C36,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X36" t="str">
+        <f>IFERROR(VLOOKUP(D36,'Compraram '!D:D,1,0),"Não")</f>
         <v>moannemendes@hotmail.com</v>
-      </c>
-      <c r="X36" s="19">
-        <v>0.23891942480629674</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1">
@@ -5616,73 +5616,73 @@
       <c r="B37" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="19">
+        <v>0.13837696594022614</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="V37" s="3" t="str">
+      <c r="W37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W37" t="str">
-        <f>IFERROR(VLOOKUP(C37,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X37" t="str">
+        <f>IFERROR(VLOOKUP(D37,'Compraram '!D:D,1,0),"Não")</f>
         <v>t-hata-rainha@hotmail.com</v>
-      </c>
-      <c r="X37" s="19">
-        <v>0.13837696594022614</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="12.5">
@@ -5692,73 +5692,73 @@
       <c r="B38" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="19">
+        <v>0.72857685392439564</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="T38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="U38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="3" t="s">
+      <c r="V38" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="V38" s="3" t="str">
+      <c r="W38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W38" t="str">
-        <f>IFERROR(VLOOKUP(C38,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X38" t="str">
+        <f>IFERROR(VLOOKUP(D38,'Compraram '!D:D,1,0),"Não")</f>
         <v>aline.zaccaro23@gmail.com</v>
-      </c>
-      <c r="X38" s="19">
-        <v>0.72857685392439564</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="12.5">
@@ -5768,73 +5768,73 @@
       <c r="B39" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="19">
+        <v>0.59367814825439891</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="V39" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="V39" s="3" t="str">
+      <c r="W39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W39" t="str">
-        <f>IFERROR(VLOOKUP(C39,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X39" t="str">
+        <f>IFERROR(VLOOKUP(D39,'Compraram '!D:D,1,0),"Não")</f>
         <v>anahitroche@gmail.com</v>
-      </c>
-      <c r="X39" s="19">
-        <v>0.59367814825439891</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="12.5">
@@ -5844,73 +5844,73 @@
       <c r="B40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="19">
+        <v>0.64342568761557306</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="T40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="V40" s="3" t="str">
+      <c r="W40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W40" t="str">
-        <f>IFERROR(VLOOKUP(C40,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X40" t="str">
+        <f>IFERROR(VLOOKUP(D40,'Compraram '!D:D,1,0),"Não")</f>
         <v>jaque-d-@hotmail.com</v>
-      </c>
-      <c r="X40" s="19">
-        <v>0.64342568761557306</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="12.5">
@@ -5920,73 +5920,73 @@
       <c r="B41" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="19">
+        <v>0.38717220645295336</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="T41" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="V41" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="V41" s="3" t="str">
+      <c r="W41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W41" t="str">
-        <f>IFERROR(VLOOKUP(C41,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X41" t="str">
+        <f>IFERROR(VLOOKUP(D41,'Compraram '!D:D,1,0),"Não")</f>
         <v>tiemyk@hotmail.com</v>
-      </c>
-      <c r="X41" s="19">
-        <v>0.38717220645295336</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="12.5">
@@ -5996,73 +5996,73 @@
       <c r="B42" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="19">
+        <v>0.23875527082685299</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="V42" s="3" t="str">
+      <c r="W42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W42" t="str">
-        <f>IFERROR(VLOOKUP(C42,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X42" t="str">
+        <f>IFERROR(VLOOKUP(D42,'Compraram '!D:D,1,0),"Não")</f>
         <v>demymarcos2015@gmail.com</v>
-      </c>
-      <c r="X42" s="19">
-        <v>0.23875527082685299</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="12.5">
@@ -6072,73 +6072,73 @@
       <c r="B43" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="19">
+        <v>0.23421260427652718</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="V43" s="3" t="str">
+      <c r="W43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W43" t="str">
-        <f>IFERROR(VLOOKUP(C43,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X43" t="str">
+        <f>IFERROR(VLOOKUP(D43,'Compraram '!D:D,1,0),"Não")</f>
         <v>simone@simonews.com.br</v>
-      </c>
-      <c r="X43" s="19">
-        <v>0.23421260427652718</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="12.5">
@@ -6148,73 +6148,73 @@
       <c r="B44" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="19">
+        <v>0.55759480999842503</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="V44" s="3" t="str">
+      <c r="W44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W44" t="str">
-        <f>IFERROR(VLOOKUP(C44,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X44" t="str">
+        <f>IFERROR(VLOOKUP(D44,'Compraram '!D:D,1,0),"Não")</f>
         <v>thatiannycolaresm@hotmail.com</v>
-      </c>
-      <c r="X44" s="19">
-        <v>0.55759480999842503</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="12.5">
@@ -6224,73 +6224,73 @@
       <c r="B45" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="19">
+        <v>0.63766188974349869</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="V45" s="3" t="str">
+      <c r="W45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W45" t="str">
-        <f>IFERROR(VLOOKUP(C45,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X45" t="str">
+        <f>IFERROR(VLOOKUP(D45,'Compraram '!D:D,1,0),"Não")</f>
         <v>anapaulaantunesdesouza1@hotmail.com</v>
-      </c>
-      <c r="X45" s="19">
-        <v>0.63766188974349869</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="12.5">
@@ -6300,73 +6300,73 @@
       <c r="B46" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="19">
+        <v>0.33408320866229352</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S46" s="2" t="s">
+      <c r="T46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="V46" s="3" t="str">
+      <c r="W46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W46" t="str">
-        <f>IFERROR(VLOOKUP(C46,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X46" t="str">
+        <f>IFERROR(VLOOKUP(D46,'Compraram '!D:D,1,0),"Não")</f>
         <v>milasousa229@gmail.com</v>
-      </c>
-      <c r="X46" s="19">
-        <v>0.33408320866229352</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="12.5">
@@ -6376,73 +6376,73 @@
       <c r="B47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="19">
+        <v>0.81560841399858752</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="V47" s="3" t="str">
+      <c r="W47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W47" t="str">
-        <f>IFERROR(VLOOKUP(C47,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X47" t="str">
+        <f>IFERROR(VLOOKUP(D47,'Compraram '!D:D,1,0),"Não")</f>
         <v>allanpiva13@gmail.com</v>
-      </c>
-      <c r="X47" s="19">
-        <v>0.81560841399858752</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="12.5">
@@ -6452,73 +6452,73 @@
       <c r="B48" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="19">
+        <v>0.42294804294281424</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S48" s="2" t="s">
+      <c r="T48" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="V48" s="3" t="str">
+      <c r="W48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="W48" t="str">
-        <f>IFERROR(VLOOKUP(C48,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X48" t="str">
+        <f>IFERROR(VLOOKUP(D48,'Compraram '!D:D,1,0),"Não")</f>
         <v>Não</v>
-      </c>
-      <c r="X48" s="19">
-        <v>0.42294804294281424</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="12.5">
@@ -6528,73 +6528,73 @@
       <c r="B49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="19">
+        <v>0.21531463499632775</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="V49" s="3" t="str">
+      <c r="W49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sim</v>
       </c>
-      <c r="W49" t="str">
-        <f>IFERROR(VLOOKUP(C49,'Compraram '!D:D,1,0),"Não")</f>
+      <c r="X49" t="str">
+        <f>IFERROR(VLOOKUP(D49,'Compraram '!D:D,1,0),"Não")</f>
         <v>arthur@steinrocket.com.br</v>
-      </c>
-      <c r="X49" s="19">
-        <v>0.21531463499632775</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="12.5"/>
@@ -7547,7 +7547,7 @@
     <row r="997" ht="12.5"/>
     <row r="998" ht="12.5"/>
   </sheetData>
-  <autoFilter ref="A1:V49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -7645,7 +7645,7 @@
         <v>Sim</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D2,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D2,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>donajacke@gmail.com</v>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
         <v>Não</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D3,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D3,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -7707,7 +7707,7 @@
         <v>Não</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D4,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D4,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -7738,7 +7738,7 @@
         <v>Sim</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D5,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D5,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>evelinlorenadesigner@gmail.com</v>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
         <v>Sim</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D6,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D6,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>jprcoaching33@gmail.com</v>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
         <v>Sim</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D7,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D7,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>impulsedigital.gestaodeanuncios@gmail.com</v>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
         <v>Não</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D8,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D8,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
         <v>Não</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D9,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D9,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -7893,7 +7893,7 @@
         <v>Sim</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D10,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D10,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>maxsuelmonaski@gmail.com</v>
       </c>
     </row>
@@ -7924,7 +7924,7 @@
         <v>Não</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D11,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D11,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
         <v>Sim</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D12,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D12,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>tiemyk@hotmail.com</v>
       </c>
     </row>
@@ -7986,7 +7986,7 @@
         <v>Sim</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D13,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D13,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>danbelchior80@gmail.com</v>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
         <v>Não</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D14,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D14,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
         <v>Não</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D15,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D15,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
         <v>Não</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D16,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D16,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
         <v>Não</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D17,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D17,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
         <v>Sim</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D18,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D18,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>bruuvmenezes@gmail.com</v>
       </c>
     </row>
@@ -8172,7 +8172,7 @@
         <v>Não</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D19,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D19,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
         <v>Sim</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D20,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D20,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>cassiamaele@hotmail.com</v>
       </c>
     </row>
@@ -8234,7 +8234,7 @@
         <v>Sim</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D21,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D21,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>cassiamaele@hotmail.com</v>
       </c>
     </row>
@@ -8265,7 +8265,7 @@
         <v>Não</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D22,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D22,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8296,7 +8296,7 @@
         <v>Sim</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D23,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D23,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>brunovaztex@gmail.com</v>
       </c>
     </row>
@@ -8327,7 +8327,7 @@
         <v>Sim</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D24,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D24,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>aline.zaccaro23@gmail.com</v>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
         <v>Não</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D25,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D25,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
         <v>Sim</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D26,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D26,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>arthur@steinrocket.com.br</v>
       </c>
     </row>
@@ -8420,7 +8420,7 @@
         <v>Sim</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D27,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D27,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>arthur@steinrocket.com.br</v>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
         <v>Sim</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D28,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D28,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>bytatianaalmeida@outlook.com</v>
       </c>
     </row>
@@ -8482,7 +8482,7 @@
         <v>Sim</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D29,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D29,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>milasousa229@gmail.com</v>
       </c>
     </row>
@@ -8513,7 +8513,7 @@
         <v>Sim</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D30,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D30,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>t-hata-rainha@hotmail.com</v>
       </c>
     </row>
@@ -8544,7 +8544,7 @@
         <v>Não</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D31,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D31,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
         <v>Não</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D32,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D32,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
         <v>Não</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D33,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D33,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
         <v>Não</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D34,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D34,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
         <v>Não</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D35,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D35,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8699,7 +8699,7 @@
         <v>Não</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D36,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D36,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8730,7 +8730,7 @@
         <v>Sim</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D37,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D37,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>tiemyk@hotmail.com</v>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
         <v>Sim</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D38,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D38,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>jaque-d-@hotmail.com</v>
       </c>
     </row>
@@ -8792,7 +8792,7 @@
         <v>Não</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D39,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D39,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8823,7 +8823,7 @@
         <v>Sim</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D40,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D40,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>flavialopesunai@gmail.com</v>
       </c>
     </row>
@@ -8854,7 +8854,7 @@
         <v>Sim</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D41,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D41,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>eu.lucianeferraz@gmail.com</v>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
         <v>Sim</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D42,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D42,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>eu.lucianeferraz@gmail.com</v>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
         <v>Não</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D43,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D43,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -8947,7 +8947,7 @@
         <v>Sim</v>
       </c>
       <c r="I44" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D44,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D44,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>denise@danondigital.com</v>
       </c>
     </row>
@@ -8978,7 +8978,7 @@
         <v>Sim</v>
       </c>
       <c r="I45" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D45,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D45,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>laryssagnbarbosa@gmail.com</v>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
         <v>Não</v>
       </c>
       <c r="I46" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D46,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D46,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
         <v>Sim</v>
       </c>
       <c r="I47" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D47,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D47,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>anahitroche@gmail.com</v>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
         <v>Não</v>
       </c>
       <c r="I48" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D48,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D48,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9102,7 +9102,7 @@
         <v>Não</v>
       </c>
       <c r="I49" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D49,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D49,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
         <v>Sim</v>
       </c>
       <c r="I50" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D50,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D50,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>anapaulaantunesdesouza1@hotmail.com</v>
       </c>
     </row>
@@ -9164,7 +9164,7 @@
         <v>Sim</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D51,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D51,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>anapaulaantunesdesouza1@hotmail.com</v>
       </c>
     </row>
@@ -9195,7 +9195,7 @@
         <v>Sim</v>
       </c>
       <c r="I52" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D52,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D52,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>simone@simonews.com.br</v>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
         <v>Não</v>
       </c>
       <c r="I53" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D53,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D53,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9257,7 +9257,7 @@
         <v>Não</v>
       </c>
       <c r="I54" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D54,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D54,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9288,7 +9288,7 @@
         <v>Não</v>
       </c>
       <c r="I55" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D55,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D55,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9319,7 +9319,7 @@
         <v>Não</v>
       </c>
       <c r="I56" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D56,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D56,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9350,7 +9350,7 @@
         <v>Não</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D57,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D57,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
         <v>Não</v>
       </c>
       <c r="I58" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D58,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D58,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
         <v>Sim</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D59,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D59,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>nataliabrandt@hotmail.com</v>
       </c>
     </row>
@@ -9443,7 +9443,7 @@
         <v>Sim</v>
       </c>
       <c r="I60" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D60,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D60,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>moannemendes@hotmail.com</v>
       </c>
     </row>
@@ -9474,7 +9474,7 @@
         <v>Sim</v>
       </c>
       <c r="I61" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D61,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D61,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>moannemendes@hotmail.com</v>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
         <v>Sim</v>
       </c>
       <c r="I62" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D62,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D62,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>allanpiva13@gmail.com</v>
       </c>
     </row>
@@ -9536,7 +9536,7 @@
         <v>Não</v>
       </c>
       <c r="I63" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D63,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D63,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9567,7 +9567,7 @@
         <v>Sim</v>
       </c>
       <c r="I64" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D64,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D64,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>demymarcos2015@gmail.com</v>
       </c>
     </row>
@@ -9598,7 +9598,7 @@
         <v>Sim</v>
       </c>
       <c r="I65" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D65,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D65,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>demymarcos2015@gmail.com</v>
       </c>
     </row>
@@ -9629,7 +9629,7 @@
         <v>Não</v>
       </c>
       <c r="I66" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D66,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D66,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9660,7 +9660,7 @@
         <v>Não</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D67,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D67,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
         <v>Não</v>
       </c>
       <c r="I68" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D68,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D68,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
         <v>Não</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D69,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D69,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
         <v>Não</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D70,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D70,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9784,7 +9784,7 @@
         <v>Não</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D71,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D71,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9815,7 +9815,7 @@
         <v>Não</v>
       </c>
       <c r="I72" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D72,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D72,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9846,7 +9846,7 @@
         <v>Não</v>
       </c>
       <c r="I73" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D73,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D73,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9877,7 +9877,7 @@
         <v>Não</v>
       </c>
       <c r="I74" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D74,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D74,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9908,7 +9908,7 @@
         <v>Sim</v>
       </c>
       <c r="I75" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D75,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D75,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>thatiannycolaresm@hotmail.com</v>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
         <v>Não</v>
       </c>
       <c r="I76" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D76,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D76,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
         <v>Não</v>
       </c>
       <c r="I77" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D77,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D77,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -10001,7 +10001,7 @@
         <v>Não</v>
       </c>
       <c r="I78" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D78,'Preencheu Pesquisa'!C:C,1,0),"Não")</f>
+        <f>IFERROR(VLOOKUP(D78,'Preencheu Pesquisa'!D:D,1,0),"Não")</f>
         <v>Não</v>
       </c>
     </row>
